--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value152.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value152.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.699685112594925</v>
+        <v>4.047865867614746</v>
       </c>
       <c r="B1">
-        <v>2.582216474602269</v>
+        <v>4.405974864959717</v>
       </c>
       <c r="C1">
-        <v>2.614793916058479</v>
+        <v>3.825764894485474</v>
       </c>
       <c r="D1">
-        <v>1.106330486322612</v>
+        <v>1.725615382194519</v>
       </c>
       <c r="E1">
-        <v>0.6757743295813899</v>
+        <v>0.9356040954589844</v>
       </c>
     </row>
   </sheetData>
